--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/4.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/4.xlsx
@@ -479,13 +479,13 @@
         <v>-16.88508278957572</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.4938099190998</v>
+        <v>-21.57058688293784</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08964007560882106</v>
+        <v>-0.08675067255047433</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.92593330673356</v>
+        <v>-8.901928283017007</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.60657721810962</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.64583847663339</v>
+        <v>-21.71927624878132</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2192818706988048</v>
+        <v>-0.2184360725108285</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.441349613105551</v>
+        <v>-8.419226857032761</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.17110683366806</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.84918693924898</v>
+        <v>-21.90675010610004</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3680787946933612</v>
+        <v>-0.3712322041225213</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.34233744603679</v>
+        <v>-8.314181655490227</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.60233451873759</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.97262458462485</v>
+        <v>-22.02662366546993</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3913406893661425</v>
+        <v>-0.3949585544476596</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.840309775907628</v>
+        <v>-7.798430543085635</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.92269390836079</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.92844751857541</v>
+        <v>-21.96542796651675</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5134240798398757</v>
+        <v>-0.5171935041342671</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.144535652649494</v>
+        <v>-7.105599601961384</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.14645554695924</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.19944028020164</v>
+        <v>-22.23664562245886</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6468352992242508</v>
+        <v>-0.6623236729786374</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.564357207752697</v>
+        <v>-6.522619756129845</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.31042279152792</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.58866389489047</v>
+        <v>-22.62391363440092</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8150611365079272</v>
+        <v>-0.8308184056399941</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.14360438777913</v>
+        <v>-6.104868786372563</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.44312917814127</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.86677016150806</v>
+        <v>-22.90025985854643</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.932861756966243</v>
+        <v>-0.9534689209102895</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.828238999828781</v>
+        <v>-5.783876151518395</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.55169606321243</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.32643947614227</v>
+        <v>-23.35244899267426</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.031218797114838</v>
+        <v>-1.053708228702647</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.520744912934165</v>
+        <v>-5.482204871802275</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.66445588012996</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.7529613242188</v>
+        <v>-23.7720968970959</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.285730716592696</v>
+        <v>-1.311916237371893</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.13271421592086</v>
+        <v>-5.090047852993293</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.788257116140077</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.22281444015679</v>
+        <v>-24.23960328973778</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.20645547024567</v>
+        <v>-1.230333379783683</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.959995381326489</v>
+        <v>-4.925361656681263</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.914044702080185</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.81797280209382</v>
+        <v>-24.83111445255208</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.129742063496908</v>
+        <v>-1.159085882712131</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.866014002323783</v>
+        <v>-4.842390321142849</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.056974613511272</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42318296214922</v>
+        <v>-25.43246229718262</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.057145200530088</v>
+        <v>-1.090820679829398</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.730412507863029</v>
+        <v>-4.708881321621136</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.210230705860066</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.04093831382512</v>
+        <v>-26.05061365841475</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.011951221052326</v>
+        <v>-1.046580056690685</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.735868639526506</v>
+        <v>-4.72313766564506</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.36588811284064</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.81277071691185</v>
+        <v>-26.82422077099417</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9194561001371622</v>
+        <v>-0.9512004217240408</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.671856872617989</v>
+        <v>-4.668331898666944</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.535232793593366</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.57989745088918</v>
+        <v>-27.58450533986124</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8001203315226352</v>
+        <v>-0.8285939075155478</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.693275611701944</v>
+        <v>-4.694815648865021</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.715658667628443</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.45084469018887</v>
+        <v>-28.46245852600123</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6388662180311794</v>
+        <v>-0.6623530070198388</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.939471330499179</v>
+        <v>-4.946829285833886</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.91166127570111</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.11341512331035</v>
+        <v>-29.11879791987083</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3820809103602056</v>
+        <v>-0.4096891321376743</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.203717262649065</v>
+        <v>-5.227614728214546</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.137805406029023</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.53725046211351</v>
+        <v>-29.54117877913108</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1783511052089928</v>
+        <v>-0.2055339833890399</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.530606039784733</v>
+        <v>-5.550787860131358</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.396899903546132</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.12883007102395</v>
+        <v>-30.13383396955224</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2344179665509024</v>
+        <v>0.2061203948051987</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.844534059716208</v>
+        <v>-5.871100923031024</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.699001833322659</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.68318967065657</v>
+        <v>-30.6916158739917</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2797683942484055</v>
+        <v>0.2586087725283976</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.113967228151892</v>
+        <v>-6.140695428693316</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.054532729109467</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.01546368885615</v>
+        <v>-31.02004957729731</v>
       </c>
       <c r="F23" t="n">
-        <v>0.564108144621312</v>
+        <v>0.5432663083476535</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.404692021492989</v>
+        <v>-6.433082484369164</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.4639609691974858</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.22160866339961</v>
+        <v>-31.22899595277552</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7612915695777257</v>
+        <v>0.7386310227495748</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.662508909612882</v>
+        <v>-6.694766576920786</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.06609000901976904</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.52335816722561</v>
+        <v>-31.53172081347146</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9911580054394658</v>
+        <v>0.974647829249894</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.710978523691477</v>
+        <v>-6.745754029535843</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.5310493142262369</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.43299709780785</v>
+        <v>-31.44239376900606</v>
       </c>
       <c r="F26" t="n">
-        <v>1.015974604295926</v>
+        <v>0.9991808657080732</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.891431767149307</v>
+        <v>-6.932802543257141</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9313419403078617</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.53346129991608</v>
+        <v>-31.54401422123832</v>
       </c>
       <c r="F27" t="n">
-        <v>1.267328225337757</v>
+        <v>1.248246431536188</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.152333618602223</v>
+        <v>-7.193420832311777</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.26064032536511</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.34879617704241</v>
+        <v>-31.36093069208609</v>
       </c>
       <c r="F28" t="n">
-        <v>1.422475969252436</v>
+        <v>1.40790672878903</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.323747088363128</v>
+        <v>-7.372886496382491</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.514374017486266</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.15440926401387</v>
+        <v>-31.1668468974833</v>
       </c>
       <c r="F29" t="n">
-        <v>1.445928535193027</v>
+        <v>1.429701921401737</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.621702722860393</v>
+        <v>-7.673037294963</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.690489885949117</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.04298390851001</v>
+        <v>-31.06098767629743</v>
       </c>
       <c r="F30" t="n">
-        <v>1.568833278820402</v>
+        <v>1.556566760591313</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.652938587733113</v>
+        <v>-7.709905295746406</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.783060703846597</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.76340116181861</v>
+        <v>-30.77809751646056</v>
       </c>
       <c r="F31" t="n">
-        <v>1.485866832288856</v>
+        <v>1.465406338550816</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.608145506818438</v>
+        <v>-7.655759544695322</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.788720167771353</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.35842516700458</v>
+        <v>-30.37429488329458</v>
       </c>
       <c r="F32" t="n">
-        <v>1.453369603644472</v>
+        <v>1.438717250064328</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.605187657663954</v>
+        <v>-7.648166917031004</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.70848680124375</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.85869533010287</v>
+        <v>-29.87423259392592</v>
       </c>
       <c r="F33" t="n">
-        <v>1.403399064457734</v>
+        <v>1.384322159663032</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.858091093882598</v>
+        <v>-7.903221516271089</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.543178634337853</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.27570081725073</v>
+        <v>-29.295491517048</v>
       </c>
       <c r="F34" t="n">
-        <v>1.401018118113547</v>
+        <v>1.383715922811535</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.862852986570973</v>
+        <v>-7.91057458259893</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.295322722740266</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.80637082504749</v>
+        <v>-28.82255343777698</v>
       </c>
       <c r="F35" t="n">
-        <v>1.4165113808748</v>
+        <v>1.398402499439747</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.848508640423445</v>
+        <v>-7.890265648073765</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9728032259461883</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.17950969808196</v>
+        <v>-28.19289824338701</v>
       </c>
       <c r="F36" t="n">
-        <v>1.339543745768958</v>
+        <v>1.324539383694396</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.684849135553467</v>
+        <v>-7.71682324046309</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5844899128461289</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.53151583893419</v>
+        <v>-27.54491905125983</v>
       </c>
       <c r="F37" t="n">
-        <v>1.430816614967393</v>
+        <v>1.414325994805289</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.601995136179859</v>
+        <v>-7.632688321290351</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.1396585179021987</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.95666641152233</v>
+        <v>-26.96502416876132</v>
       </c>
       <c r="F38" t="n">
-        <v>1.271850556689654</v>
+        <v>1.251189613670071</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.543967513676446</v>
+        <v>-7.569214345137194</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.3476260791840466</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.19461446667286</v>
+        <v>-26.19689763287971</v>
       </c>
       <c r="F39" t="n">
-        <v>1.349135977241845</v>
+        <v>1.333926276878873</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.46161708201013</v>
+        <v>-7.482713146640868</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.8666446626996465</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.55120649596625</v>
+        <v>-25.55617372694304</v>
       </c>
       <c r="F40" t="n">
-        <v>1.347356378742288</v>
+        <v>1.329374611485775</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.138106608619501</v>
+        <v>-7.154822123097484</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.409687622202021</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.98425770365133</v>
+        <v>-24.98456571108394</v>
       </c>
       <c r="F41" t="n">
-        <v>1.397708260464645</v>
+        <v>1.382953237740296</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.134126957029832</v>
+        <v>-7.1439880838804</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.963421004729037</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.30117544221971</v>
+        <v>-24.30358572260509</v>
       </c>
       <c r="F42" t="n">
-        <v>1.402558155276625</v>
+        <v>1.383965262161747</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.866512499148642</v>
+        <v>-6.88112574067385</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.52238339167834</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.61756516804645</v>
+        <v>-23.62023945480266</v>
       </c>
       <c r="F43" t="n">
-        <v>1.353892980923354</v>
+        <v>1.33584765657757</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.816493069893235</v>
+        <v>-6.826134191434791</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.082230988139345</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.93160328157022</v>
+        <v>-22.93095304365692</v>
       </c>
       <c r="F44" t="n">
-        <v>1.463010725186028</v>
+        <v>1.446603218140662</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.734489757714471</v>
+        <v>-6.74393531898135</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.630544870428623</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.09857029052345</v>
+        <v>-22.09770982531487</v>
       </c>
       <c r="F45" t="n">
-        <v>1.512106132143588</v>
+        <v>1.492374100428719</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.588577347771394</v>
+        <v>-6.593740139022856</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.16511832269653</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.57895197368713</v>
+        <v>-21.5757496741893</v>
       </c>
       <c r="F46" t="n">
-        <v>1.505417970749648</v>
+        <v>1.48524103940989</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.470009153234972</v>
+        <v>-6.481576543482094</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.681646164955843</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.89813332243488</v>
+        <v>-20.88798863318604</v>
       </c>
       <c r="F47" t="n">
-        <v>1.582732725343041</v>
+        <v>1.566276328229006</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.451792713648848</v>
+        <v>-6.459810684910588</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.169844835631261</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.26375534741147</v>
+        <v>-20.2479540772176</v>
       </c>
       <c r="F48" t="n">
-        <v>1.628924062221654</v>
+        <v>1.613689916824347</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.432334466318526</v>
+        <v>-6.436455899107336</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.632021571397906</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.49317941908954</v>
+        <v>-19.47561810642358</v>
       </c>
       <c r="F49" t="n">
-        <v>1.771795509893509</v>
+        <v>1.755363557813808</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.196650112285157</v>
+        <v>-6.199524848322903</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.06710742103099</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.10161885911832</v>
+        <v>-19.07870408393309</v>
       </c>
       <c r="F50" t="n">
-        <v>1.769634568858333</v>
+        <v>1.749452748511708</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.206785023520272</v>
+        <v>-6.21318962251593</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.471080030886223</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.52149419329706</v>
+        <v>-18.50012923328864</v>
       </c>
       <c r="F51" t="n">
-        <v>1.736447990245714</v>
+        <v>1.725027270204601</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.259107175009996</v>
+        <v>-6.268919411791894</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.851996520731147</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.04340310078831</v>
+        <v>-18.03163526125965</v>
       </c>
       <c r="F52" t="n">
-        <v>1.743512605168406</v>
+        <v>1.726053961646653</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.270410558886303</v>
+        <v>-6.27770495713174</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.210128766081913</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.64383923657595</v>
+        <v>-17.62867842628165</v>
       </c>
       <c r="F53" t="n">
-        <v>1.829476012909372</v>
+        <v>1.811352464453718</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.181469745963386</v>
+        <v>-6.185033831969367</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.544861902321295</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.01721522644347</v>
+        <v>-16.99963924675691</v>
       </c>
       <c r="F54" t="n">
-        <v>1.886540501060003</v>
+        <v>1.866886693455005</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.182432880316169</v>
+        <v>-6.187996570130718</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.864256651578153</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.8033700660846</v>
+        <v>-16.79055597908642</v>
       </c>
       <c r="F55" t="n">
-        <v>1.86928719582666</v>
+        <v>1.854845069541794</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.416547863145258</v>
+        <v>-6.423211579504863</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.164585819650185</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.24461036027176</v>
+        <v>-16.23534080325209</v>
       </c>
       <c r="F56" t="n">
-        <v>1.898220338465063</v>
+        <v>1.885743592940696</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.31340937428082</v>
+        <v>-6.321036224993207</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.445422317498537</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.14709911831114</v>
+        <v>-16.138949143864</v>
       </c>
       <c r="F57" t="n">
-        <v>1.939234217071613</v>
+        <v>1.92619523575755</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.491354557215923</v>
+        <v>-6.505498454081908</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.710671069712109</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.92652668450341</v>
+        <v>-15.92156434253349</v>
       </c>
       <c r="F58" t="n">
-        <v>1.82274385045363</v>
+        <v>1.810051988627119</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.644610255473106</v>
+        <v>-6.658827487442095</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.950118767092377</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66477414585565</v>
+        <v>-15.66190429882477</v>
       </c>
       <c r="F59" t="n">
-        <v>1.880018565899539</v>
+        <v>1.867380483148563</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.420322176446516</v>
+        <v>-6.427210787121999</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.161882160344128</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43729843435183</v>
+        <v>-15.43780200205912</v>
       </c>
       <c r="F60" t="n">
-        <v>1.946685063536791</v>
+        <v>1.934183872978089</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.453049188413645</v>
+        <v>-6.454985235132943</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.34333546546755</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.28935708655898</v>
+        <v>-15.29274516831776</v>
       </c>
       <c r="F61" t="n">
-        <v>1.891170390562972</v>
+        <v>1.878854982265213</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.290592379232928</v>
+        <v>-6.28906700909045</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.479486263057622</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.25565227321847</v>
+        <v>-15.26390491680982</v>
       </c>
       <c r="F62" t="n">
-        <v>1.89166418025653</v>
+        <v>1.87485088564121</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.371539665928439</v>
+        <v>-6.371754782230583</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.571817769186122</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.19859756308158</v>
+        <v>-15.21201299792439</v>
       </c>
       <c r="F63" t="n">
-        <v>1.87551579057511</v>
+        <v>1.862075910697961</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.415115384133252</v>
+        <v>-6.408226773457768</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.618305474883433</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.24325375180398</v>
+        <v>-15.26116218395749</v>
       </c>
       <c r="F64" t="n">
-        <v>1.7204169367291</v>
+        <v>1.705275682462265</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.408388110684377</v>
+        <v>-6.399822570653542</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.607536531641784</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.28457563784314</v>
+        <v>-15.30772997436485</v>
       </c>
       <c r="F65" t="n">
-        <v>1.716256391885356</v>
+        <v>1.700029778094065</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.512719517224341</v>
+        <v>-6.502858390373774</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.54682657203594</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.29053533721391</v>
+        <v>-15.31512704175449</v>
       </c>
       <c r="F66" t="n">
-        <v>1.806703018923282</v>
+        <v>1.794886289325949</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.45834887185738</v>
+        <v>-6.451474928202498</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.434715776268375</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.16745458933933</v>
+        <v>-15.19483302779405</v>
       </c>
       <c r="F67" t="n">
-        <v>1.628557386706635</v>
+        <v>1.617997131874099</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.223456536936451</v>
+        <v>-6.209522867365744</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.264105355540975</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.29345407431346</v>
+        <v>-15.32630820045913</v>
       </c>
       <c r="F68" t="n">
-        <v>1.590892477803922</v>
+        <v>1.578850853890711</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.34656172984537</v>
+        <v>-6.331420475578534</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.04398038745533</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.20128162785151</v>
+        <v>-15.23566112413966</v>
       </c>
       <c r="F69" t="n">
-        <v>1.561587770643634</v>
+        <v>1.544691362911576</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.199348844075694</v>
+        <v>-6.19499762796414</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.770531684545352</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.25090993655757</v>
+        <v>-15.28643346045257</v>
       </c>
       <c r="F70" t="n">
-        <v>1.483705891253679</v>
+        <v>1.47316519244861</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.147784488650342</v>
+        <v>-6.13612420727275</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.439473273177274</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.27475362304751</v>
+        <v>-15.31139672951504</v>
       </c>
       <c r="F71" t="n">
-        <v>1.375864177783269</v>
+        <v>1.364575460927563</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.150224103076932</v>
+        <v>-6.140788319823787</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.055481279107656</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.39278891583544</v>
+        <v>-15.43069338607463</v>
       </c>
       <c r="F72" t="n">
-        <v>1.296652488525513</v>
+        <v>1.287153148183098</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.013038570391299</v>
+        <v>-6.005851730296935</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.611330617621412</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.50245911787407</v>
+        <v>-15.53969868317937</v>
       </c>
       <c r="F73" t="n">
-        <v>1.227145477898583</v>
+        <v>1.219406180028257</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.160823469964404</v>
+        <v>-6.155543342548136</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.10500404682248</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.62083664114268</v>
+        <v>-15.65569037109692</v>
       </c>
       <c r="F74" t="n">
-        <v>1.096594327531353</v>
+        <v>1.084034468890249</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.071691985773678</v>
+        <v>-6.068162122815766</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.537339985897347</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.87142757711328</v>
+        <v>-15.90942982748981</v>
       </c>
       <c r="F75" t="n">
-        <v>1.038786710336951</v>
+        <v>1.025982401352501</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.105382132093589</v>
+        <v>-6.10389098499918</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.901441195282992</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.89296365236204</v>
+        <v>-15.9309756807523</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8291754299248397</v>
+        <v>0.8111887736614596</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.223163196524437</v>
+        <v>-6.223016526318429</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.201513061687033</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.95571405549889</v>
+        <v>-15.988001056848</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6808429615826402</v>
+        <v>0.6656674842677361</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.154272200762739</v>
+        <v>-6.155611788644273</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.439988590109915</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.10111800872781</v>
+        <v>-16.12962091876192</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6964437824949657</v>
+        <v>0.6826812281646002</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.126849761246213</v>
+        <v>-6.127764005530326</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.616508606408979</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.2250983338659</v>
+        <v>-16.25423681479272</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4125978218156177</v>
+        <v>0.3962489828526541</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.142851480721625</v>
+        <v>-6.148312501391969</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.744506661209213</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.70657261912655</v>
+        <v>-16.73272880586455</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3975103466243182</v>
+        <v>0.3795188013540712</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.101627374819798</v>
+        <v>-6.113429437396531</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.832480050691258</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.18053738983962</v>
+        <v>-17.19786403017597</v>
       </c>
       <c r="F81" t="n">
-        <v>0.22570575631406</v>
+        <v>0.2088337936163365</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.200703098977829</v>
+        <v>-6.217232831194869</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.8901689711287063</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.61349805995988</v>
+        <v>-17.63092248043356</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.08224300821917875</v>
+        <v>-0.09626956892035773</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.249954954155131</v>
+        <v>-6.266851361887189</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.06014507089044777</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.09905955496127</v>
+        <v>-18.11027982572084</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.09184990671266662</v>
+        <v>-0.1066147074507498</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.289311459433796</v>
+        <v>-6.313067143800136</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.005192330665557</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.87697388259044</v>
+        <v>-18.88652211300153</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1888086908973239</v>
+        <v>-0.2019747863899258</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.311796002014738</v>
+        <v>-6.340709588625673</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.929842281355861</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.56644607599712</v>
+        <v>-19.57359380403655</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.344005324880672</v>
+        <v>-0.3593128053809827</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.407200082015716</v>
+        <v>-6.440611554944213</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.813234943297596</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.22516152720404</v>
+        <v>-20.22907762170444</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5016709073318122</v>
+        <v>-0.5201269082544161</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.660294189502169</v>
+        <v>-6.697123078230639</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.644665654609484</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.97742812480938</v>
+        <v>-20.98003885447631</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6035284763971182</v>
+        <v>-0.622106702491395</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.988928342089325</v>
+        <v>-7.02945820901605</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>4.410223943546504</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.82567570522599</v>
+        <v>-21.82935223838991</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.717236998107826</v>
+        <v>-0.7349938710484611</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.264995892843412</v>
+        <v>-7.314487309357192</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>5.094389535135466</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.82096016716507</v>
+        <v>-22.81978680551701</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9313559428512331</v>
+        <v>-0.9490639257231991</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.340149706401628</v>
+        <v>-7.391415832408098</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>5.688419180231111</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.89340293547779</v>
+        <v>-23.88292090475513</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.183970927664729</v>
+        <v>-1.198598836210538</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.704801172577347</v>
+        <v>-7.755280168478244</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>6.178196040420363</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.11135721517051</v>
+        <v>-25.09488615103588</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.116106623345082</v>
+        <v>-1.126329536703801</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.074507871853456</v>
+        <v>-8.126502459883095</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>6.552358844095743</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.38460127352117</v>
+        <v>-26.36289408303207</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.332674960528814</v>
+        <v>-1.339236007744213</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.362978833028905</v>
+        <v>-8.417906825178694</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>6.801803265208336</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.65313232925213</v>
+        <v>-27.62450230503947</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.611279905846829</v>
+        <v>-1.625389579664745</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.673826778634224</v>
+        <v>-8.728207202014918</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>6.913881992391278</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.16179673526534</v>
+        <v>-29.12530274350726</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.85783252214535</v>
+        <v>-1.866862517828542</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.00976510748055</v>
+        <v>-9.063832634421763</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>6.887281025726362</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.79477636338704</v>
+        <v>-30.75701367434699</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.120758422441169</v>
+        <v>-2.125794099514091</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.288477610949638</v>
+        <v>-9.339450396544093</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>6.709367564860662</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.63824240415002</v>
+        <v>-32.59841166520527</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.139986886448745</v>
+        <v>-2.142773620362886</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.643976856270491</v>
+        <v>-9.692554028500158</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>6.391377504939297</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.36033151593154</v>
+        <v>-34.31668490712716</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.493662532208239</v>
+        <v>-2.497818188045117</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.00892655186509</v>
+        <v>-10.05620813727503</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>5.914935014226208</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.35227669524274</v>
+        <v>-36.3037239680474</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.888894736336511</v>
+        <v>-2.893231285427464</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.44961674184194</v>
+        <v>-10.48939370171116</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>5.325473228030773</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.38814226774286</v>
+        <v>-38.33237336641196</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.162405336499201</v>
+        <v>-3.168589930185848</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.78863025600755</v>
+        <v>-10.82581115323044</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.569013059982244</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.59293769451549</v>
+        <v>-40.53628388294168</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.522989148961646</v>
+        <v>-3.529955983747</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.97081909690314</v>
+        <v>-11.00921246782902</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.763265328653337</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.50435604172173</v>
+        <v>-42.45003428642344</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.955910707026964</v>
+        <v>-3.960706822763408</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.22854798289943</v>
+        <v>-11.26039497363051</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.74980652879713</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.77046939261921</v>
+        <v>-44.71554628947629</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.191868845444881</v>
+        <v>-4.200933064176141</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.36890648104169</v>
+        <v>-11.40171660612556</v>
       </c>
     </row>
   </sheetData>
